--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacqui.Muller\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C83D35A-B4E3-41A5-A49A-8F77E24E888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CCA0A-847A-452F-8B6F-928174BC57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
     <sheet name="Zone" sheetId="2" r:id="rId2"/>
     <sheet name="Category" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Results" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="MOCK_DATA" localSheetId="0">Device!$A$1:$E$201</definedName>
-    <definedName name="MOCK_DATA_1" localSheetId="1">Zone!$B$1:$B$201</definedName>
-    <definedName name="MOCK_DATA_2" localSheetId="2">Category!$A$1:$B$196</definedName>
+    <definedName name="MOCK_DATA" localSheetId="0">Device!$B$1:$F$201</definedName>
+    <definedName name="MOCK_DATA_1" localSheetId="1">Zone!$C$1:$C$201</definedName>
+    <definedName name="MOCK_DATA_2" localSheetId="2">Category!$B$1:$C$196</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Status</t>
   </si>
@@ -205,16 +206,105 @@
   </si>
   <si>
     <t>Assembly Temp</t>
+  </si>
+  <si>
+    <t>Test Passed</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>Z01</t>
+  </si>
+  <si>
+    <t>Z02</t>
+  </si>
+  <si>
+    <t>Z03</t>
+  </si>
+  <si>
+    <t>Z04</t>
+  </si>
+  <si>
+    <t>Z05</t>
+  </si>
+  <si>
+    <t>Z06</t>
+  </si>
+  <si>
+    <t>Z07</t>
+  </si>
+  <si>
+    <t>Z08</t>
+  </si>
+  <si>
+    <t>Z09</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +318,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,12 +326,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,355 +675,647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B17"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="b">
+      <c r="F2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="b">
+      <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="b">
+      <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="b">
+      <c r="F5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="b">
+      <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="b">
+      <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FE4D3-E987-44A9-BA20-E766DD09E091}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
+      <c r="A6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacqui.Muller\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CCA0A-847A-452F-8B6F-928174BC57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB8EEF-425E-42A8-A7F1-FF25847C778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>Status</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Assembly Temp</t>
   </si>
   <si>
-    <t>Test Passed</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -281,6 +278,18 @@
   </si>
   <si>
     <t>C05</t>
+  </si>
+  <si>
+    <t>Create Test Passed</t>
+  </si>
+  <si>
+    <t>Read Test Passed</t>
+  </si>
+  <si>
+    <t>Update Test Passed</t>
+  </si>
+  <si>
+    <t>Delete Test Passed</t>
   </si>
 </sst>
 </file>
@@ -692,7 +701,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -712,7 +721,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
@@ -732,7 +741,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
@@ -752,7 +761,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
@@ -772,7 +781,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>41</v>
@@ -792,7 +801,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>42</v>
@@ -812,7 +821,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>44</v>
@@ -832,7 +841,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>38</v>
@@ -852,7 +861,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>45</v>
@@ -872,7 +881,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>46</v>
@@ -913,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -924,7 +933,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -935,7 +944,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -946,7 +955,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
@@ -957,7 +966,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
@@ -968,7 +977,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -979,7 +988,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -990,7 +999,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
@@ -1001,7 +1010,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -1012,7 +1021,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
@@ -1044,7 +1053,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -1055,7 +1064,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>28</v>
@@ -1066,7 +1075,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -1077,7 +1086,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
@@ -1088,7 +1097,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
@@ -1099,7 +1108,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
@@ -1116,205 +1125,425 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FE4D3-E987-44A9-BA20-E766DD09E091}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="B24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
